--- a/Test Runs/alpha_0_beta_0_gamma_1_Run_8.xlsx
+++ b/Test Runs/alpha_0_beta_0_gamma_1_Run_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Optmization_Formulation\EquitableRetirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E50F37-2A3F-4D49-8007-79B0B6513F95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1711178-FEF7-4B3A-8046-11242368A996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13536" yWindow="1884" windowWidth="8796" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,64 +37,64 @@
     <t>Cap retire</t>
   </si>
   <si>
-    <t>[[ 0. 10.  0.]
- [ 0.  0.  0.]]</t>
+    <t>[[ 0.  0.  0.]
+ [ 0. 10.  0.]]</t>
   </si>
   <si>
     <t>Cap Invest</t>
   </si>
   <si>
-    <t>[[[ 0. 20.  0.]
-  [ 0.  0.  0.]]]</t>
+    <t>[[[ 0.  0.  0.]
+  [ 0. 20.  0.]]]</t>
   </si>
   <si>
     <t>RE Cap</t>
   </si>
   <si>
-    <t>[[[ 0. 20. 20.]
-  [ 0.  0.  0.]]]</t>
+    <t>[[[ 0.  0.  0.]
+  [ 0. 20. 20.]]]</t>
   </si>
   <si>
     <t>Re Gen</t>
   </si>
   <si>
-    <t>[[[ 0. 15. 15.]
-  [ 0.  0.  0.]]]</t>
+    <t>[[[ 0.  0.  0.]
+  [ 0. 10. 10.]]]</t>
   </si>
   <si>
     <t>Coal Gen</t>
   </si>
   <si>
-    <t>[[10.  0.  0.]
- [10. 10. 10.]]</t>
+    <t>[[10. 10. 10.]
+ [10.  0.  0.]]</t>
   </si>
   <si>
     <t>RE Invest</t>
   </si>
   <si>
-    <t>[[[0. 1. 0.]
-  [0. 0. 0.]]]</t>
+    <t>[[[0. 0. 0.]
+  [0. 1. 0.]]]</t>
   </si>
   <si>
     <t>Coal Retire</t>
   </si>
   <si>
-    <t>[[0. 1. 0.]
- [0. 0. 0.]]</t>
+    <t>[[0. 0. 0.]
+ [0. 1. 0.]]</t>
   </si>
   <si>
     <t>RE online</t>
   </si>
   <si>
-    <t>[[[0. 1. 1.]
-  [0. 0. 0.]]]</t>
+    <t>[[[0. 0. 0.]
+  [0. 1. 1.]]]</t>
   </si>
   <si>
     <t>Coal online</t>
   </si>
   <si>
-    <t>[[1. 0. 0.]
- [1. 1. 1.]]</t>
+    <t>[[1. 1. 1.]
+ [1. 0. 0.]]</t>
   </si>
   <si>
     <t>Variable</t>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-320</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
